--- a/L02/TraceTable.xlsx
+++ b/L02/TraceTable.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/982d9db8766c45ae/Dokumente/GitHub/EIA2/L02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B598F3C-061A-4D35-8385-1D03605829BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{4B598F3C-061A-4D35-8385-1D03605829BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F0DCA49A-9151-4081-9908-27FE84C22F62}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1157,11 +1157,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,7 +1584,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
@@ -1667,7 +1667,7 @@
         <v>340</v>
       </c>
       <c r="K28" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>24</v>
@@ -1728,7 +1728,7 @@
         <v>340</v>
       </c>
       <c r="K31" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>27</v>
@@ -1789,7 +1789,7 @@
         <v>340</v>
       </c>
       <c r="K34" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>31</v>
@@ -1854,7 +1854,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="K42" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>24</v>
@@ -1998,7 +1998,7 @@
         <v>10</v>
       </c>
       <c r="K45" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>27</v>
@@ -2059,7 +2059,7 @@
         <v>10</v>
       </c>
       <c r="K48" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>31</v>
@@ -2124,7 +2124,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
@@ -2209,7 +2209,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
@@ -2292,7 +2292,7 @@
         <v>300</v>
       </c>
       <c r="K61" s="2">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>24</v>

--- a/L02/TraceTable.xlsx
+++ b/L02/TraceTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/982d9db8766c45ae/Dokumente/GitHub/EIA2/L02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{4B598F3C-061A-4D35-8385-1D03605829BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F0DCA49A-9151-4081-9908-27FE84C22F62}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62C1BF39-EC61-4DEE-8A59-2DE2EBD281F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>Boxes</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Durchlauf "big"</t>
   </si>
   <si>
-    <t>createBox(color, x, y, size) wird ausgeführt</t>
-  </si>
-  <si>
     <t>function createBox</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>neues div in HTML mit Farbe: rot; left: 170px; top: 50px und Klasse: "medium"</t>
   </si>
   <si>
-    <t>0 /= 4 --&gt; zurück zu Nr. 24</t>
-  </si>
-  <si>
     <t>Durchlauf "small"</t>
   </si>
   <si>
@@ -135,21 +129,6 @@
     <t>#00ff00</t>
   </si>
   <si>
-    <t>(grün)</t>
-  </si>
-  <si>
-    <t>1 /= 4 --&gt; zurück zu Nr. 24</t>
-  </si>
-  <si>
-    <t>neues div in HTML mit Farbe: grün; left: 340px; top: 50px und Klasse: "big"</t>
-  </si>
-  <si>
-    <t>neues div in HTML mit Farbe: grün; left: 340px; top: 50px und Klasse: "medium"</t>
-  </si>
-  <si>
-    <t>neues div in HTML mit Farbe: grün; left: 340px; top: 50px und Klasse: "small"</t>
-  </si>
-  <si>
     <t>2&gt;5 --&gt; Schleife weiter</t>
   </si>
   <si>
@@ -162,46 +141,70 @@
     <t>(blau)</t>
   </si>
   <si>
-    <t>2 /= 4 --&gt; zurück zu Nr.24</t>
-  </si>
-  <si>
-    <t>1 /= 4 und Schleife beendet --&gt; zurück zu Nr. 7</t>
-  </si>
-  <si>
-    <t>0 /= 4 und Schleife beendet--&gt; zurück zu Nr. 7</t>
-  </si>
-  <si>
-    <t>2 /= 4 und Schleife beendet --&gt; zurück zu Nr. 7</t>
-  </si>
-  <si>
-    <t>neues div in HTML mit Farbe: blau; left: 10px; top: 20px und Klasse: "big"</t>
-  </si>
-  <si>
-    <t>neues div in HTML mit Farbe: blau; left: 10px; top: 20px und Klasse: "medium"</t>
-  </si>
-  <si>
-    <t>neues div in HTML mit Farbe: blau; left: 10px; top: 20px und Klasse: "small"</t>
-  </si>
-  <si>
     <t>3 &gt; 5 --&gt; Schleife weiter</t>
   </si>
   <si>
     <t>3 /= 2 --&gt; fail</t>
   </si>
   <si>
-    <t>continue --&gt; zurück zu Nr. 7</t>
-  </si>
-  <si>
     <t>4 &gt; 5 --&gt; Schleife weiter</t>
   </si>
   <si>
     <t>4 /= 2 --&gt; fail</t>
   </si>
   <si>
-    <t>4 = 4 --&gt; zurück zu Nr. 7</t>
-  </si>
-  <si>
     <t>5 /&gt; 5 --&gt; Schleife beendet</t>
+  </si>
+  <si>
+    <t>neues div in HTML mit Farbe: blau; left: 110px; top: 120px und Klasse: "big"</t>
+  </si>
+  <si>
+    <t>neues div in HTML mit Farbe: blau; left: 110px; top: 120px und Klasse: "medium"</t>
+  </si>
+  <si>
+    <t>neues div in HTML mit Farbe: blau; left: 110px; top: 120px und Klasse: "small"</t>
+  </si>
+  <si>
+    <t>0 /= 4 --&gt; zurueck zu Nr. 24</t>
+  </si>
+  <si>
+    <t>0 /= 4 und Schleife beendet--&gt; zurueck zu Nr. 7</t>
+  </si>
+  <si>
+    <t>(gruen)</t>
+  </si>
+  <si>
+    <t>createBox(color, x, y, size) wird ausgefuehrt</t>
+  </si>
+  <si>
+    <t>1 /= 4 --&gt; zurueck zu Nr. 24</t>
+  </si>
+  <si>
+    <t>1 /= 4 und Schleife beendet --&gt; zurueck zu Nr. 7</t>
+  </si>
+  <si>
+    <t>2 /= 4 --&gt; zurueck zu Nr.24</t>
+  </si>
+  <si>
+    <t>2 /= 4 und Schleife beendet --&gt; zurueck zu Nr. 7</t>
+  </si>
+  <si>
+    <t>continue --&gt; zurueck zu Nr. 7</t>
+  </si>
+  <si>
+    <t>4 = 4 --&gt; zurueck zu Nr. 7</t>
+  </si>
+  <si>
+    <t>neues div in HTML mit Farbe: gruen; left: 50px; top: 220px und Klasse: "big"</t>
+  </si>
+  <si>
+    <t>neues div in HTML mit Farbe: gruen; left: 340px; top: 100px und Klasse: "small"</t>
+  </si>
+  <si>
+    <t>neues div in HTML mit Farbe: gruen; left: 340px; top: 100px und Klasse: "medium"</t>
+  </si>
+  <si>
+    <t>neues div in HTML mit Farbe: gruen; left: 340px; top: 100px und Klasse: "big"</t>
   </si>
 </sst>
 </file>
@@ -1160,14 +1163,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="40.44140625" customWidth="1"/>
-    <col min="13" max="13" width="69" customWidth="1"/>
+    <col min="13" max="13" width="70.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1185,7 +1188,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1208,19 +1211,19 @@
         <v>8</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1251,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1388,7 +1391,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>13</v>
@@ -1400,10 +1403,10 @@
         <v>50</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1415,7 +1418,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1432,7 +1435,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1449,7 +1452,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>13</v>
@@ -1461,10 +1464,10 @@
         <v>50</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -1476,7 +1479,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1493,7 +1496,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1510,7 +1513,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>13</v>
@@ -1522,10 +1525,10 @@
         <v>50</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1569,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1588,7 +1591,7 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1618,13 +1621,13 @@
         <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1658,10 +1661,10 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J28" s="2">
         <v>340</v>
@@ -1670,10 +1673,10 @@
         <v>100</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
@@ -1685,7 +1688,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1702,7 +1705,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1719,10 +1722,10 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J31" s="2">
         <v>340</v>
@@ -1731,10 +1734,10 @@
         <v>100</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
@@ -1746,7 +1749,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1763,7 +1766,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1780,10 +1783,10 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J34" s="2">
         <v>340</v>
@@ -1792,10 +1795,10 @@
         <v>100</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
@@ -1807,7 +1810,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1839,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1858,7 +1861,7 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -1872,7 +1875,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1888,13 +1891,13 @@
         <v>21</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -1928,22 +1931,22 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J42" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="K42" s="2">
         <v>120</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
@@ -1955,7 +1958,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -1972,7 +1975,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -1989,22 +1992,22 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J45" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="K45" s="2">
         <v>120</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
@@ -2016,7 +2019,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -2033,7 +2036,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -2050,22 +2053,22 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J48" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="K48" s="2">
         <v>120</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
@@ -2077,7 +2080,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -2109,7 +2112,7 @@
         <v>3</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -2128,7 +2131,7 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -2142,7 +2145,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2194,7 +2197,7 @@
         <v>4</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -2213,7 +2216,7 @@
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -2227,7 +2230,7 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2243,13 +2246,13 @@
         <v>16</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -2283,10 +2286,10 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J61" s="2">
         <v>300</v>
@@ -2295,10 +2298,10 @@
         <v>220</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
@@ -2310,7 +2313,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -2342,7 +2345,7 @@
         <v>5</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
